--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/fabgonzalez_estudiantec_cr/Documents/Escritorio/Quiz_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{FBEBC1EF-078A-4B1F-A90C-6B9211FAB12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D3DCA11-453E-483F-B9A3-96A5D7A53BFA}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{FBEBC1EF-078A-4B1F-A90C-6B9211FAB12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF716D2-B45F-4ACF-B8CE-3ECC87955523}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97F3A37B-4C92-4A4E-82AA-E3743532660A}"/>
   </bookViews>
@@ -133,9 +133,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>"DLL", "BST" por "Corrida"</a:t>
+              <a:rPr lang="es-CR"/>
+              <a:t>Comparacion</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-CR" baseline="0"/>
+              <a:t> de tiempos entre BST Y DLL</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -171,47 +176,35 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$1</c:f>
+              <c:f>Hoja1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DLL</c:v>
+                  <c:v>Corrida</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Hoja1!$A$2:$A$21</c:f>
               <c:numCache>
@@ -279,80 +272,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$B$2:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40301</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17101</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>39301</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C966-4501-AF98-A8D96DD39261}"/>
+              <c16:uniqueId val="{00000000-9393-4D3B-BF46-AED417B805FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -361,6 +284,105 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DLL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9393-4D3B-BF46-AED417B805FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Hoja1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -371,98 +393,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
               <c:f>Hoja1!$C$2:$C$21</c:f>
               <c:numCache>
@@ -530,11 +470,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C966-4501-AF98-A8D96DD39261}"/>
+              <c16:uniqueId val="{00000002-9393-4D3B-BF46-AED417B805FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -546,86 +485,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1777843472"/>
-        <c:axId val="1777844432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1777843472"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="79526864"/>
+        <c:axId val="79525904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79526864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CR"/>
-                  <a:t>Corrida</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -634,8 +505,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -662,12 +533,15 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1777844432"/>
+        <c:crossAx val="79525904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1777844432"/>
+        <c:axId val="79525904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,14 +567,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -724,41 +592,9 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1777843472"/>
+        <c:crossAx val="79526864"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CR"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -770,6 +606,20 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42402230971128613"/>
+          <c:y val="0.89872630504520268"/>
+          <c:w val="0.15736045494313211"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -843,14 +693,535 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Comparacion de tiempos entre BST Y DLL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DLL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A08B-4086-9CEB-FBB2F46AC252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A08B-4086-9CEB-FBB2F46AC252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="120572960"/>
+        <c:axId val="120575840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="120572960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120575840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120575840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120572960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -884,7 +1255,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -911,8 +1282,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1013,7 +1384,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1045,10 +1416,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1088,23 +1459,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1209,8 +1579,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1342,24 +1712,417 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1369,17 +2132,128 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1403,23 +2277,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5" descr="Tipo de gráfico: Dispersión. &quot;DLL&quot;, &quot;BST&quot; por &quot;Corrida&quot;&#10;&#10;Descripción generada automáticamente">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892A08A8-9312-7C7B-6AF7-4E85430AD268}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C2AEE6-251C-55D4-4938-1A370028C5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,6 +2306,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD47493C-7AD4-38D4-1879-77B322425B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1760,7 +2670,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
